--- a/stat_tests/combined_target_data.xlsx
+++ b/stat_tests/combined_target_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasminebassil/Documents/Emory/3_Research/Projects/CogMap_Paper/stat_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B1180914-D5F1-B341-8859-641CD2331DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5D1A1059-219C-6F45-BE8A-8E33A70BBDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16100" yWindow="3340" windowWidth="20960" windowHeight="14900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined_target_data" sheetId="1" r:id="rId1"/>
     <sheet name="significant" sheetId="2" r:id="rId2"/>
-    <sheet name="ct dt" sheetId="5" r:id="rId3"/>
-    <sheet name="head rotation" sheetId="3" r:id="rId4"/>
+    <sheet name="sig sorted" sheetId="6" r:id="rId3"/>
+    <sheet name="ct dt" sheetId="5" r:id="rId4"/>
+    <sheet name="head rotation" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="842" uniqueCount="46">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1028" uniqueCount="46">
   <si>
     <t>contrast</t>
   </si>
@@ -180,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -706,7 +707,37 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1136,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8737,6 +8768,2470 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+      <formula>0.05</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
+      <formula>0.01</formula>
+      <formula>0.001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-210.22485520000001</v>
+      </c>
+      <c r="C2">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D2">
+        <v>575</v>
+      </c>
+      <c r="E2">
+        <v>-6.3403086469999996</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.35E-8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <f>F2*6</f>
+        <v>8.0999999999999997E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1.5138315040000001</v>
+      </c>
+      <c r="C3">
+        <v>0.32913995600000001</v>
+      </c>
+      <c r="D3">
+        <v>575</v>
+      </c>
+      <c r="E3">
+        <v>4.5993550010000002</v>
+      </c>
+      <c r="F3">
+        <v>1.4049099999999999E-4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <f>F3*6</f>
+        <v>8.4294600000000002E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>-5.3825447649999996</v>
+      </c>
+      <c r="C4">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D4">
+        <v>575</v>
+      </c>
+      <c r="E4">
+        <v>-10.77418919</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <f>F4*6</f>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>-20.92307692</v>
+      </c>
+      <c r="C5">
+        <v>5.4926859779999999</v>
+      </c>
+      <c r="D5">
+        <v>575</v>
+      </c>
+      <c r="E5">
+        <v>-3.8092614450000002</v>
+      </c>
+      <c r="F5">
+        <v>3.830361E-3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <f>F5*6</f>
+        <v>2.2982165999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>-30.035625970000002</v>
+      </c>
+      <c r="C6">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D6">
+        <v>575</v>
+      </c>
+      <c r="E6">
+        <v>-6.2971448849999998</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.7299999999999999E-8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6">
+        <f>F6*3</f>
+        <v>5.1899999999999995E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-1.587521629</v>
+      </c>
+      <c r="C7">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D7">
+        <v>575</v>
+      </c>
+      <c r="E7">
+        <v>-8.3247948709999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <f>F7*3</f>
+        <v>1.5090000000000001E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.417954351</v>
+      </c>
+      <c r="C8">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D8">
+        <v>575</v>
+      </c>
+      <c r="E8">
+        <v>9.3232330490000006</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <f>F8*6</f>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1.8541353</v>
+      </c>
+      <c r="C9">
+        <v>0.32913995600000001</v>
+      </c>
+      <c r="D9">
+        <v>575</v>
+      </c>
+      <c r="E9">
+        <v>5.6332732160000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7.7100000000000001E-7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <f>F9*6</f>
+        <v>4.6260000000000003E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-6.6107575470000004</v>
+      </c>
+      <c r="C10">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D10">
+        <v>575</v>
+      </c>
+      <c r="E10">
+        <v>-13.23269116</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <f>F10*6</f>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-0.95709315800000005</v>
+      </c>
+      <c r="C11">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D11">
+        <v>575</v>
+      </c>
+      <c r="E11">
+        <v>-5.0188949039999997</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <f>F11*3</f>
+        <v>5.7000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>-184.43036660000001</v>
+      </c>
+      <c r="C12">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D12">
+        <v>575</v>
+      </c>
+      <c r="E12">
+        <v>-5.5623558260000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.13E-6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <f>F12*6</f>
+        <v>6.7799999999999995E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.58525039800000001</v>
+      </c>
+      <c r="C13">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D13">
+        <v>575</v>
+      </c>
+      <c r="E13">
+        <v>13.055076079999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13">
+        <f>F13*6</f>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2.1804411359999998</v>
+      </c>
+      <c r="C14">
+        <v>0.32913995600000001</v>
+      </c>
+      <c r="D14">
+        <v>575</v>
+      </c>
+      <c r="E14">
+        <v>6.6246625310000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.7400000000000001E-9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <f>F14*6</f>
+        <v>1.644E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>-10.913150140000001</v>
+      </c>
+      <c r="C15">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D15">
+        <v>575</v>
+      </c>
+      <c r="E15">
+        <v>-21.844749920000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <f>F15*6</f>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-0.95026591900000001</v>
+      </c>
+      <c r="C16">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D16">
+        <v>575</v>
+      </c>
+      <c r="E16">
+        <v>-4.9830935829999996</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.27E-5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16">
+        <f>F16*3</f>
+        <v>6.8100000000000002E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>-197.08906820000001</v>
+      </c>
+      <c r="C17">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D17">
+        <v>575</v>
+      </c>
+      <c r="E17">
+        <v>-5.9441378709999997</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.35E-7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H22" si="0">F17*6</f>
+        <v>8.1000000000000008E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>0.23469380400000001</v>
+      </c>
+      <c r="C18">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D18">
+        <v>575</v>
+      </c>
+      <c r="E18">
+        <v>5.2352727650000004</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6.3899999999999998E-6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>3.8340000000000002E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>-21.935500940000001</v>
+      </c>
+      <c r="C19">
+        <v>5.6131824369999999</v>
+      </c>
+      <c r="D19">
+        <v>575</v>
+      </c>
+      <c r="E19">
+        <v>-3.907854623</v>
+      </c>
+      <c r="F19">
+        <v>2.6248299999999999E-3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1.5748979999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>1.7127398149999999</v>
+      </c>
+      <c r="C20">
+        <v>0.32913995600000001</v>
+      </c>
+      <c r="D20">
+        <v>575</v>
+      </c>
+      <c r="E20">
+        <v>5.203682454</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7.5100000000000001E-6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>4.5059999999999999E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>-2.7783800410000001</v>
+      </c>
+      <c r="C21">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D21">
+        <v>575</v>
+      </c>
+      <c r="E21">
+        <v>-5.5614571780000004</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.1400000000000001E-6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>6.8400000000000006E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>-25.96153846</v>
+      </c>
+      <c r="C22">
+        <v>5.4926859779999999</v>
+      </c>
+      <c r="D22">
+        <v>575</v>
+      </c>
+      <c r="E22">
+        <v>-4.7265652119999997</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>4.6799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>-63.614822580000002</v>
+      </c>
+      <c r="C23">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D23">
+        <v>575</v>
+      </c>
+      <c r="E23">
+        <v>-13.337220110000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23">
+        <f>F23*3</f>
+        <v>1.5090000000000001E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>-1.5622070779999999</v>
+      </c>
+      <c r="C24">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D24">
+        <v>575</v>
+      </c>
+      <c r="E24">
+        <v>-8.1920480510000004</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24">
+        <f>F24*3</f>
+        <v>1.5090000000000001E-9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>0.26316885299999998</v>
+      </c>
+      <c r="C25">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D25">
+        <v>575</v>
+      </c>
+      <c r="E25">
+        <v>5.8704605799999996</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.05E-7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25">
+        <f>F25*6</f>
+        <v>1.2300000000000001E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>1.2022580970000001</v>
+      </c>
+      <c r="C26">
+        <v>0.32913995600000001</v>
+      </c>
+      <c r="D26">
+        <v>575</v>
+      </c>
+      <c r="E26">
+        <v>3.652726065</v>
+      </c>
+      <c r="F26">
+        <v>6.8319569999999996E-3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26">
+        <f>F26*6</f>
+        <v>4.0991741999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>-3.3130756219999999</v>
+      </c>
+      <c r="C27">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D27">
+        <v>575</v>
+      </c>
+      <c r="E27">
+        <v>-6.6317522889999996</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.6500000000000002E-9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <f>F27*6</f>
+        <v>1.59E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>-36.259288400000003</v>
+      </c>
+      <c r="C28">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D28">
+        <v>575</v>
+      </c>
+      <c r="E28">
+        <v>-7.601972161</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5.0600000000000001E-10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28">
+        <f>F28*3</f>
+        <v>1.5179999999999999E-9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>-1.3977377799999999</v>
+      </c>
+      <c r="C29">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D29">
+        <v>575</v>
+      </c>
+      <c r="E29">
+        <v>-7.3295885170000004</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5.2500000000000005E-10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29">
+        <f>F29*3</f>
+        <v>1.575E-9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>-121.7330869</v>
+      </c>
+      <c r="C30">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D30">
+        <v>575</v>
+      </c>
+      <c r="E30">
+        <v>-3.6714276369999999</v>
+      </c>
+      <c r="F30">
+        <v>6.3845539999999998E-3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30">
+        <f>F30*6</f>
+        <v>3.8307323999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>1.87827736</v>
+      </c>
+      <c r="C31">
+        <v>0.32913995600000001</v>
+      </c>
+      <c r="D31">
+        <v>575</v>
+      </c>
+      <c r="E31">
+        <v>5.706622136</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5.1399999999999997E-7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31">
+        <f>F31*6</f>
+        <v>3.0839999999999996E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>-3.569650089</v>
+      </c>
+      <c r="C32">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D32">
+        <v>575</v>
+      </c>
+      <c r="E32">
+        <v>-7.1453349849999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5.7899999999999997E-10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <f>F32*6</f>
+        <v>3.4739999999999998E-9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>-28.76983358</v>
+      </c>
+      <c r="C33">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D33">
+        <v>575</v>
+      </c>
+      <c r="E33">
+        <v>-6.0317640969999999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>8.1499999999999995E-8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33">
+        <f>F33*3</f>
+        <v>2.445E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>-1.2400392119999999</v>
+      </c>
+      <c r="C34">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D34">
+        <v>575</v>
+      </c>
+      <c r="E34">
+        <v>-6.5026339699999998</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5.3000000000000003E-9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34">
+        <f>F34*3</f>
+        <v>1.59E-8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>-20.479452259999999</v>
+      </c>
+      <c r="C35">
+        <v>5.6336683550000002</v>
+      </c>
+      <c r="D35">
+        <v>575</v>
+      </c>
+      <c r="E35">
+        <v>-3.6351895359999999</v>
+      </c>
+      <c r="F35">
+        <v>7.2773849999999999E-3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:H41" si="1">F35*6</f>
+        <v>4.3664309999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>-245.51926370000001</v>
+      </c>
+      <c r="C36">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D36">
+        <v>575</v>
+      </c>
+      <c r="E36">
+        <v>-7.4047757560000003</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5.1599999999999998E-10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>3.0960000000000001E-9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>0.44145490799999998</v>
+      </c>
+      <c r="C37">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D37">
+        <v>575</v>
+      </c>
+      <c r="E37">
+        <v>9.8474557750000002</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>-21.882838159999999</v>
+      </c>
+      <c r="C38">
+        <v>5.6131824369999999</v>
+      </c>
+      <c r="D38">
+        <v>575</v>
+      </c>
+      <c r="E38">
+        <v>-3.8984726410000001</v>
+      </c>
+      <c r="F38">
+        <v>2.7221509999999999E-3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>1.6332906000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>1.4033859040000001</v>
+      </c>
+      <c r="C39">
+        <v>0.32913995600000001</v>
+      </c>
+      <c r="D39">
+        <v>575</v>
+      </c>
+      <c r="E39">
+        <v>4.263796835</v>
+      </c>
+      <c r="F39">
+        <v>6.1696199999999998E-4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>3.7017719999999999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>-7.1098287090000003</v>
+      </c>
+      <c r="C40">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D40">
+        <v>575</v>
+      </c>
+      <c r="E40">
+        <v>-14.231677210000001</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>-30</v>
+      </c>
+      <c r="C41">
+        <v>5.4926859779999999</v>
+      </c>
+      <c r="D41">
+        <v>575</v>
+      </c>
+      <c r="E41">
+        <v>-5.4618086889999997</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.95E-6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>1.17E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>-0.89446762000000002</v>
+      </c>
+      <c r="C42">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D42">
+        <v>575</v>
+      </c>
+      <c r="E42">
+        <v>-4.6904932280000002</v>
+      </c>
+      <c r="F42" s="1">
+        <v>9.2299999999999994E-5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42">
+        <f>F42*3</f>
+        <v>2.7689999999999995E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>0.48820535999999998</v>
+      </c>
+      <c r="C43">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D43">
+        <v>575</v>
+      </c>
+      <c r="E43">
+        <v>10.890309759999999</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43">
+        <f>F43*6</f>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <v>-5.5306053740000003</v>
+      </c>
+      <c r="C44">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D44">
+        <v>575</v>
+      </c>
+      <c r="E44">
+        <v>-11.07056072</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <f>F44*6</f>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45">
+        <v>2.6041647239999999</v>
+      </c>
+      <c r="C45">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D45">
+        <v>575</v>
+      </c>
+      <c r="E45">
+        <v>5.2127320170000004</v>
+      </c>
+      <c r="F45" s="1">
+        <v>7.17E-6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <f>F45*6</f>
+        <v>4.3019999999999998E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46">
+        <v>-33.579196609999997</v>
+      </c>
+      <c r="C46">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D46">
+        <v>575</v>
+      </c>
+      <c r="E46">
+        <v>-7.0400752229999997</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6.5700000000000001E-10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46">
+        <f>F46*3</f>
+        <v>1.9709999999999999E-9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>0.16612381500000001</v>
+      </c>
+      <c r="C47">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D47">
+        <v>575</v>
+      </c>
+      <c r="E47">
+        <v>3.7056942589999999</v>
+      </c>
+      <c r="F47">
+        <v>5.6338150000000004E-3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47">
+        <f>F47*6</f>
+        <v>3.3802890000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48">
+        <v>2.0694691430000001</v>
+      </c>
+      <c r="C48">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D48">
+        <v>575</v>
+      </c>
+      <c r="E48">
+        <v>4.1424369060000004</v>
+      </c>
+      <c r="F48">
+        <v>1.025471E-3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <f>F48*6</f>
+        <v>6.1528260000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49">
+        <v>0.34440987000000001</v>
+      </c>
+      <c r="C49">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D49">
+        <v>575</v>
+      </c>
+      <c r="E49">
+        <v>7.6826894550000002</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5.0500000000000001E-10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49">
+        <f>F49*6</f>
+        <v>3.0300000000000001E-9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>22.0550651</v>
+      </c>
+      <c r="C50">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D50">
+        <v>575</v>
+      </c>
+      <c r="E50">
+        <v>4.6239735619999998</v>
+      </c>
+      <c r="F50">
+        <v>1.2550699999999999E-4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50">
+        <f>F50*3</f>
+        <v>3.76521E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51">
+        <v>0.69305401</v>
+      </c>
+      <c r="C51">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D51">
+        <v>575</v>
+      </c>
+      <c r="E51">
+        <v>3.6343016430000001</v>
+      </c>
+      <c r="F51">
+        <v>7.300628E-3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51">
+        <f>F51*3</f>
+        <v>2.1901884E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>-0.320909314</v>
+      </c>
+      <c r="C52">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D52">
+        <v>575</v>
+      </c>
+      <c r="E52">
+        <v>-7.1584667289999997</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5.7299999999999999E-10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52">
+        <f>F52*6</f>
+        <v>3.4379999999999999E-9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>-17.34303002</v>
+      </c>
+      <c r="C53">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D53">
+        <v>575</v>
+      </c>
+      <c r="E53">
+        <v>-3.6360678110000002</v>
+      </c>
+      <c r="F53">
+        <v>7.2544599999999999E-3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53">
+        <f>F53*3</f>
+        <v>2.1763379999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54">
+        <v>0.167296047</v>
+      </c>
+      <c r="C54">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D54">
+        <v>575</v>
+      </c>
+      <c r="E54">
+        <v>3.7318430290000002</v>
+      </c>
+      <c r="F54">
+        <v>5.1164770000000004E-3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54">
+        <f>F54*6</f>
+        <v>3.0698862E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>-4.3023925920000003</v>
+      </c>
+      <c r="C55">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D55">
+        <v>575</v>
+      </c>
+      <c r="E55">
+        <v>-8.6120587569999998</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55">
+        <f>F55*6</f>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>-0.183260547</v>
+      </c>
+      <c r="C56">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D56">
+        <v>575</v>
+      </c>
+      <c r="E56">
+        <v>-4.0879602840000002</v>
+      </c>
+      <c r="F56">
+        <v>1.2820119999999999E-3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56">
+        <f>F56*6</f>
+        <v>7.6920719999999995E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>3.8323775059999998</v>
+      </c>
+      <c r="C57">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D57">
+        <v>575</v>
+      </c>
+      <c r="E57">
+        <v>7.6712339829999996</v>
+      </c>
+      <c r="F57" s="1">
+        <v>5.0500000000000001E-10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57">
+        <f>F57*6</f>
+        <v>3.0300000000000001E-9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>-50.922226629999997</v>
+      </c>
+      <c r="C58">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D58">
+        <v>575</v>
+      </c>
+      <c r="E58">
+        <v>-10.67614303</v>
+      </c>
+      <c r="F58" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58">
+        <f>F58*3</f>
+        <v>1.5090000000000001E-9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59">
+        <v>3.297681925</v>
+      </c>
+      <c r="C59">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D59">
+        <v>575</v>
+      </c>
+      <c r="E59">
+        <v>6.6009388720000004</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3.1E-9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59">
+        <f>F59*6</f>
+        <v>1.8600000000000001E-8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60">
+        <v>-23.566692450000001</v>
+      </c>
+      <c r="C60">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D60">
+        <v>575</v>
+      </c>
+      <c r="E60">
+        <v>-4.9408950880000004</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2.8E-5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60">
+        <f>F60*3</f>
+        <v>8.3999999999999995E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61">
+        <v>-137.44269800000001</v>
+      </c>
+      <c r="C61">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D61">
+        <v>575</v>
+      </c>
+      <c r="E61">
+        <v>-4.1452240549999999</v>
+      </c>
+      <c r="F61">
+        <v>1.0137410000000001E-3</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61">
+        <f>F61*6</f>
+        <v>6.082446E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>-20.88461538</v>
+      </c>
+      <c r="C62">
+        <v>5.4926859779999999</v>
+      </c>
+      <c r="D62">
+        <v>575</v>
+      </c>
+      <c r="E62">
+        <v>-3.802259126</v>
+      </c>
+      <c r="F62">
+        <v>3.9330260000000001E-3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62">
+        <f>F62*6</f>
+        <v>2.3598156000000002E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63">
+        <v>20.60053207</v>
+      </c>
+      <c r="C63">
+        <v>5.6336683550000002</v>
+      </c>
+      <c r="D63">
+        <v>575</v>
+      </c>
+      <c r="E63">
+        <v>3.656681716</v>
+      </c>
+      <c r="F63">
+        <v>6.7349979999999999E-3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63">
+        <f>F63*6</f>
+        <v>4.0409988000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64">
+        <v>0.350556594</v>
+      </c>
+      <c r="C64">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D64">
+        <v>575</v>
+      </c>
+      <c r="E64">
+        <v>7.8198033130000004</v>
+      </c>
+      <c r="F64" s="1">
+        <v>5.0400000000000002E-10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64">
+        <f>F64*6</f>
+        <v>3.0240000000000003E-9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65">
+        <v>-8.1347700980000006</v>
+      </c>
+      <c r="C65">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D65">
+        <v>575</v>
+      </c>
+      <c r="E65">
+        <v>-16.28329274</v>
+      </c>
+      <c r="F65" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65">
+        <f>F65*6</f>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66">
+        <v>49.253346610000001</v>
+      </c>
+      <c r="C66">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D66">
+        <v>575</v>
+      </c>
+      <c r="E66">
+        <v>10.32625256</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66">
+        <f>F66*3</f>
+        <v>1.5090000000000001E-9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <v>27.355534179999999</v>
+      </c>
+      <c r="C67">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D67">
+        <v>575</v>
+      </c>
+      <c r="E67">
+        <v>5.7352479460000003</v>
+      </c>
+      <c r="F67" s="1">
+        <v>4.39E-7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67">
+        <f>F67*3</f>
+        <v>1.3170000000000001E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68">
+        <v>0.206761104</v>
+      </c>
+      <c r="C68">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D68">
+        <v>575</v>
+      </c>
+      <c r="E68">
+        <v>4.6121830099999999</v>
+      </c>
+      <c r="F68">
+        <v>1.3248200000000001E-4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68">
+        <f>F68*6</f>
+        <v>7.9489200000000006E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69">
+        <v>-4.3314486680000002</v>
+      </c>
+      <c r="C69">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D69">
+        <v>575</v>
+      </c>
+      <c r="E69">
+        <v>-8.6702200299999994</v>
+      </c>
+      <c r="F69" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69">
+        <f>F69*6</f>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70">
+        <v>55.634261709999997</v>
+      </c>
+      <c r="C70">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D70">
+        <v>575</v>
+      </c>
+      <c r="E70">
+        <v>11.66404878</v>
+      </c>
+      <c r="F70" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70">
+        <f>F70*3</f>
+        <v>1.5090000000000001E-9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71">
+        <v>0.66773945800000001</v>
+      </c>
+      <c r="C71">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D71">
+        <v>575</v>
+      </c>
+      <c r="E71">
+        <v>3.5015548230000002</v>
+      </c>
+      <c r="F71">
+        <v>1.1644326999999999E-2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71">
+        <f>F71*3</f>
+        <v>3.4932981000000002E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72">
+        <v>0.322081546</v>
+      </c>
+      <c r="C72">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D72">
+        <v>575</v>
+      </c>
+      <c r="E72">
+        <v>7.1846154980000003</v>
+      </c>
+      <c r="F72" s="1">
+        <v>5.6200000000000002E-10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72">
+        <f>F72*6</f>
+        <v>3.3720000000000003E-9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73">
+        <v>-7.6000745170000004</v>
+      </c>
+      <c r="C73">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D73">
+        <v>575</v>
+      </c>
+      <c r="E73">
+        <v>-15.21299763</v>
+      </c>
+      <c r="F73" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73">
+        <f>F73*6</f>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74">
+        <v>21.897812429999998</v>
+      </c>
+      <c r="C74">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D74">
+        <v>575</v>
+      </c>
+      <c r="E74">
+        <v>4.5910046170000003</v>
+      </c>
+      <c r="F74">
+        <v>1.4595E-4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74">
+        <f>F74*3</f>
+        <v>4.3784999999999999E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75">
+        <v>-128.43930219999999</v>
+      </c>
+      <c r="C75">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D75">
+        <v>575</v>
+      </c>
+      <c r="E75">
+        <v>-3.8736847640000001</v>
+      </c>
+      <c r="F75">
+        <v>2.9956599999999998E-3</v>
+      </c>
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75">
+        <f>F75*6</f>
+        <v>1.7973959999999997E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76">
+        <v>0.178286056</v>
+      </c>
+      <c r="C76">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D76">
+        <v>575</v>
+      </c>
+      <c r="E76">
+        <v>3.9769951950000002</v>
+      </c>
+      <c r="F76">
+        <v>2.0014799999999999E-3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76">
+        <f>F76*6</f>
+        <v>1.200888E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77">
+        <v>-3.7967530869999999</v>
+      </c>
+      <c r="C77">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D77">
+        <v>575</v>
+      </c>
+      <c r="E77">
+        <v>-7.5999249180000001</v>
+      </c>
+      <c r="F77" s="1">
+        <v>5.0600000000000001E-10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77">
+        <f>F77*6</f>
+        <v>3.0359999999999999E-9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78">
+        <v>28.278727530000001</v>
+      </c>
+      <c r="C78">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D78">
+        <v>575</v>
+      </c>
+      <c r="E78">
+        <v>5.9288008379999999</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1.4700000000000001E-7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>43</v>
+      </c>
+      <c r="H78">
+        <f>F78*3</f>
+        <v>4.4099999999999999E-7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>-1.812894676</v>
+      </c>
+      <c r="C79">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D79">
+        <v>575</v>
+      </c>
+      <c r="E79">
+        <v>-3.6288542100000001</v>
+      </c>
+      <c r="F79">
+        <v>7.4447239999999998E-3</v>
+      </c>
+      <c r="G79" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79">
+        <f>F79*6</f>
+        <v>4.4668343999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>0.26060322600000002</v>
+      </c>
+      <c r="C80">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D80">
+        <v>575</v>
+      </c>
+      <c r="E80">
+        <v>5.813229604</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2.84E-7</v>
+      </c>
+      <c r="G80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80">
+        <f>F80*6</f>
+        <v>1.7040000000000001E-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>-3.0411074579999999</v>
+      </c>
+      <c r="C81">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D81">
+        <v>575</v>
+      </c>
+      <c r="E81">
+        <v>-6.0873561760000001</v>
+      </c>
+      <c r="F81" s="1">
+        <v>5.91E-8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81">
+        <f>F81*6</f>
+        <v>3.5460000000000001E-7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82">
+        <v>0.42789927300000002</v>
+      </c>
+      <c r="C82">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D82">
+        <v>575</v>
+      </c>
+      <c r="E82">
+        <v>9.5450726330000002</v>
+      </c>
+      <c r="F82" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82">
+        <f>F82*6</f>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83">
+        <v>-7.3435000500000003</v>
+      </c>
+      <c r="C83">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D83">
+        <v>575</v>
+      </c>
+      <c r="E83">
+        <v>-14.69941493</v>
+      </c>
+      <c r="F83" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83">
+        <f>F83*6</f>
+        <v>3.0180000000000001E-9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84">
+        <v>-34.844988999999998</v>
+      </c>
+      <c r="C84">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D84">
+        <v>575</v>
+      </c>
+      <c r="E84">
+        <v>-7.3054560110000004</v>
+      </c>
+      <c r="F84" s="1">
+        <v>5.2900000000000003E-10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>43</v>
+      </c>
+      <c r="H84">
+        <f>F84*3</f>
+        <v>1.587E-9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85">
+        <v>-123.7861769</v>
+      </c>
+      <c r="C85">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D85">
+        <v>575</v>
+      </c>
+      <c r="E85">
+        <v>-3.733348119</v>
+      </c>
+      <c r="F85">
+        <v>5.0880750000000001E-3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85">
+        <f>F85*6</f>
+        <v>3.0528449999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86">
+        <v>0.284103783</v>
+      </c>
+      <c r="C86">
+        <v>4.4829335999999997E-2</v>
+      </c>
+      <c r="D86">
+        <v>575</v>
+      </c>
+      <c r="E86">
+        <v>6.3374523299999996</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1.37E-8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86">
+        <f>F86*6</f>
+        <v>8.2200000000000008E-8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87">
+        <v>-3.5401786199999998</v>
+      </c>
+      <c r="C87">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D87">
+        <v>575</v>
+      </c>
+      <c r="E87">
+        <v>-7.0863422229999999</v>
+      </c>
+      <c r="F87" s="1">
+        <v>6.1600000000000004E-10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87">
+        <f>F87*6</f>
+        <v>3.6960000000000005E-9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88">
+        <v>20.789272709999999</v>
+      </c>
+      <c r="C88">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D88">
+        <v>575</v>
+      </c>
+      <c r="E88">
+        <v>4.3585927739999999</v>
+      </c>
+      <c r="F88">
+        <v>4.1067799999999999E-4</v>
+      </c>
+      <c r="G88" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88">
+        <f>F88*3</f>
+        <v>1.2320339999999999E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89">
+        <v>20.857223210000001</v>
+      </c>
+      <c r="C89">
+        <v>5.6336683550000002</v>
+      </c>
+      <c r="D89">
+        <v>575</v>
+      </c>
+      <c r="E89">
+        <v>3.7022454800000002</v>
+      </c>
+      <c r="F89">
+        <v>5.7055259999999998E-3</v>
+      </c>
+      <c r="G89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89">
+        <f>F89*6</f>
+        <v>3.4233156000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90">
+        <v>-3.80332143</v>
+      </c>
+      <c r="C90">
+        <v>0.49957771000000001</v>
+      </c>
+      <c r="D90">
+        <v>575</v>
+      </c>
+      <c r="E90">
+        <v>-7.61307271</v>
+      </c>
+      <c r="F90" s="1">
+        <v>5.0600000000000001E-10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90">
+        <f>F90*6</f>
+        <v>3.0359999999999999E-9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H90">
+    <sortCondition ref="A2:A90"/>
+  </sortState>
+  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="between">
       <formula>0.05</formula>
       <formula>0.01</formula>
@@ -8750,15 +11245,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07340887-FC7D-BF4B-9A62-DFAD60A28F02}">
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9221,7 +11717,7 @@
         <v>36</v>
       </c>
       <c r="H17">
-        <f>F17*6</f>
+        <f t="shared" ref="H17:H22" si="0">F17*6</f>
         <v>8.1000000000000008E-7</v>
       </c>
     </row>
@@ -9248,7 +11744,7 @@
         <v>37</v>
       </c>
       <c r="H18">
-        <f>F18*6</f>
+        <f t="shared" si="0"/>
         <v>3.8340000000000002E-5</v>
       </c>
     </row>
@@ -9275,7 +11771,7 @@
         <v>38</v>
       </c>
       <c r="H19">
-        <f>F19*6</f>
+        <f t="shared" si="0"/>
         <v>1.5748979999999999E-2</v>
       </c>
     </row>
@@ -9302,7 +11798,7 @@
         <v>39</v>
       </c>
       <c r="H20">
-        <f>F20*6</f>
+        <f t="shared" si="0"/>
         <v>4.5059999999999999E-5</v>
       </c>
     </row>
@@ -9329,7 +11825,7 @@
         <v>40</v>
       </c>
       <c r="H21">
-        <f>F21*6</f>
+        <f t="shared" si="0"/>
         <v>6.8400000000000006E-6</v>
       </c>
     </row>
@@ -9356,7 +11852,7 @@
         <v>41</v>
       </c>
       <c r="H22">
-        <f>F22*6</f>
+        <f t="shared" si="0"/>
         <v>4.6799999999999999E-4</v>
       </c>
     </row>
@@ -9707,7 +12203,7 @@
         <v>8</v>
       </c>
       <c r="H35">
-        <f>F35*6</f>
+        <f t="shared" ref="H35:H41" si="1">F35*6</f>
         <v>4.3664309999999998E-2</v>
       </c>
     </row>
@@ -9734,7 +12230,7 @@
         <v>36</v>
       </c>
       <c r="H36">
-        <f>F36*6</f>
+        <f t="shared" si="1"/>
         <v>3.0960000000000001E-9</v>
       </c>
     </row>
@@ -9761,7 +12257,7 @@
         <v>37</v>
       </c>
       <c r="H37">
-        <f>F37*6</f>
+        <f t="shared" si="1"/>
         <v>3.0180000000000001E-9</v>
       </c>
     </row>
@@ -9788,7 +12284,7 @@
         <v>38</v>
       </c>
       <c r="H38">
-        <f>F38*6</f>
+        <f t="shared" si="1"/>
         <v>1.6332906000000001E-2</v>
       </c>
     </row>
@@ -9815,7 +12311,7 @@
         <v>39</v>
       </c>
       <c r="H39">
-        <f>F39*6</f>
+        <f t="shared" si="1"/>
         <v>3.7017719999999999E-3</v>
       </c>
     </row>
@@ -9842,7 +12338,7 @@
         <v>40</v>
       </c>
       <c r="H40">
-        <f>F40*6</f>
+        <f t="shared" si="1"/>
         <v>3.0180000000000001E-9</v>
       </c>
     </row>
@@ -9869,7 +12365,7 @@
         <v>41</v>
       </c>
       <c r="H41">
-        <f>F41*6</f>
+        <f t="shared" si="1"/>
         <v>1.17E-5</v>
       </c>
     </row>
@@ -11197,8 +13693,364 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H90">
-    <sortCondition ref="A2:A90"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>0.05</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>0.01</formula>
+      <formula>0.001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>-20.479452259999999</v>
+      </c>
+      <c r="C2">
+        <v>5.6336683550000002</v>
+      </c>
+      <c r="D2">
+        <v>575</v>
+      </c>
+      <c r="E2">
+        <v>-3.6351895359999999</v>
+      </c>
+      <c r="F2">
+        <v>7.2773849999999999E-3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H12" si="0">F2*6</f>
+        <v>4.3664309999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>20.60053207</v>
+      </c>
+      <c r="C3">
+        <v>5.6336683550000002</v>
+      </c>
+      <c r="D3">
+        <v>575</v>
+      </c>
+      <c r="E3">
+        <v>3.656681716</v>
+      </c>
+      <c r="F3">
+        <v>6.7349979999999999E-3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>4.0409988000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>20.857223210000001</v>
+      </c>
+      <c r="C4">
+        <v>5.6336683550000002</v>
+      </c>
+      <c r="D4">
+        <v>575</v>
+      </c>
+      <c r="E4">
+        <v>3.7022454800000002</v>
+      </c>
+      <c r="F4">
+        <v>5.7055259999999998E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>3.4233156000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>-210.22485520000001</v>
+      </c>
+      <c r="C5">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D5">
+        <v>575</v>
+      </c>
+      <c r="E5">
+        <v>-6.3403086469999996</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.35E-8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>8.0999999999999997E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-184.43036660000001</v>
+      </c>
+      <c r="C6">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D6">
+        <v>575</v>
+      </c>
+      <c r="E6">
+        <v>-5.5623558260000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.13E-6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>6.7799999999999995E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>-197.08906820000001</v>
+      </c>
+      <c r="C7">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D7">
+        <v>575</v>
+      </c>
+      <c r="E7">
+        <v>-5.9441378709999997</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.35E-7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>8.1000000000000008E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-121.7330869</v>
+      </c>
+      <c r="C8">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D8">
+        <v>575</v>
+      </c>
+      <c r="E8">
+        <v>-3.6714276369999999</v>
+      </c>
+      <c r="F8">
+        <v>6.3845539999999998E-3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3.8307323999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>-245.51926370000001</v>
+      </c>
+      <c r="C9">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D9">
+        <v>575</v>
+      </c>
+      <c r="E9">
+        <v>-7.4047757560000003</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.1599999999999998E-10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>3.0960000000000001E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>-137.44269800000001</v>
+      </c>
+      <c r="C10">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D10">
+        <v>575</v>
+      </c>
+      <c r="E10">
+        <v>-4.1452240549999999</v>
+      </c>
+      <c r="F10">
+        <v>1.0137410000000001E-3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>6.082446E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>-128.43930219999999</v>
+      </c>
+      <c r="C11">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D11">
+        <v>575</v>
+      </c>
+      <c r="E11">
+        <v>-3.8736847640000001</v>
+      </c>
+      <c r="F11">
+        <v>2.9956599999999998E-3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1.7973959999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>-123.7861769</v>
+      </c>
+      <c r="C12">
+        <v>33.156880350000002</v>
+      </c>
+      <c r="D12">
+        <v>575</v>
+      </c>
+      <c r="E12">
+        <v>-3.733348119</v>
+      </c>
+      <c r="F12">
+        <v>5.0880750000000001E-3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3.0528449999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H12">
+    <sortCondition ref="G2:G12"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
@@ -11218,12 +14070,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11260,304 +14112,682 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-20.479452259999999</v>
+        <v>-30.035625970000002</v>
       </c>
       <c r="C2">
-        <v>5.6336683550000002</v>
+        <v>4.7697212809999998</v>
       </c>
       <c r="D2">
         <v>575</v>
       </c>
       <c r="E2">
-        <v>-3.6351895359999999</v>
-      </c>
-      <c r="F2">
-        <v>7.2773849999999999E-3</v>
+        <v>-6.2971448849999998</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.7299999999999999E-8</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H2">
-        <f>F2*6</f>
-        <v>4.3664309999999998E-2</v>
+        <f t="shared" ref="H2:H26" si="0">F2*3</f>
+        <v>5.1899999999999995E-8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>20.60053207</v>
+        <v>-63.614822580000002</v>
       </c>
       <c r="C3">
-        <v>5.6336683550000002</v>
+        <v>4.7697212809999998</v>
       </c>
       <c r="D3">
         <v>575</v>
       </c>
       <c r="E3">
-        <v>3.656681716</v>
-      </c>
-      <c r="F3">
-        <v>6.7349979999999999E-3</v>
+        <v>-13.337220110000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.0300000000000002E-10</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <f>F3*6</f>
-        <v>4.0409988000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5090000000000001E-9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>20.857223210000001</v>
+        <v>-36.259288400000003</v>
       </c>
       <c r="C4">
-        <v>5.6336683550000002</v>
+        <v>4.7697212809999998</v>
       </c>
       <c r="D4">
         <v>575</v>
       </c>
       <c r="E4">
-        <v>3.7022454800000002</v>
-      </c>
-      <c r="F4">
-        <v>5.7055259999999998E-3</v>
+        <v>-7.601972161</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.0600000000000001E-10</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <f>F4*6</f>
-        <v>3.4233156000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5179999999999999E-9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>-210.22485520000001</v>
+        <v>-28.76983358</v>
       </c>
       <c r="C5">
-        <v>33.156880350000002</v>
+        <v>4.7697212809999998</v>
       </c>
       <c r="D5">
         <v>575</v>
       </c>
       <c r="E5">
-        <v>-6.3403086469999996</v>
+        <v>-6.0317640969999999</v>
       </c>
       <c r="F5" s="1">
-        <v>1.35E-8</v>
+        <v>8.1499999999999995E-8</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <f>F5*6</f>
-        <v>8.0999999999999997E-8</v>
+        <f t="shared" si="0"/>
+        <v>2.445E-7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>-184.43036660000001</v>
+        <v>-33.579196609999997</v>
       </c>
       <c r="C6">
-        <v>33.156880350000002</v>
+        <v>4.7697212809999998</v>
       </c>
       <c r="D6">
         <v>575</v>
       </c>
       <c r="E6">
-        <v>-5.5623558260000001</v>
+        <v>-7.0400752229999997</v>
       </c>
       <c r="F6" s="1">
-        <v>1.13E-6</v>
+        <v>6.5700000000000001E-10</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <f>F6*6</f>
-        <v>6.7799999999999995E-6</v>
+        <f t="shared" si="0"/>
+        <v>1.9709999999999999E-9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>-197.08906820000001</v>
+        <v>22.0550651</v>
       </c>
       <c r="C7">
-        <v>33.156880350000002</v>
+        <v>4.7697212809999998</v>
       </c>
       <c r="D7">
         <v>575</v>
       </c>
       <c r="E7">
-        <v>-5.9441378709999997</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.35E-7</v>
+        <v>4.6239735619999998</v>
+      </c>
+      <c r="F7">
+        <v>1.2550699999999999E-4</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <f>F7*6</f>
-        <v>8.1000000000000008E-7</v>
+        <f t="shared" si="0"/>
+        <v>3.76521E-4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>-121.7330869</v>
+        <v>-17.34303002</v>
       </c>
       <c r="C8">
-        <v>33.156880350000002</v>
+        <v>4.7697212809999998</v>
       </c>
       <c r="D8">
         <v>575</v>
       </c>
       <c r="E8">
-        <v>-3.6714276369999999</v>
+        <v>-3.6360678110000002</v>
       </c>
       <c r="F8">
-        <v>6.3845539999999998E-3</v>
+        <v>7.2544599999999999E-3</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <f>F8*6</f>
-        <v>3.8307323999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.1763379999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>-245.51926370000001</v>
+        <v>-50.922226629999997</v>
       </c>
       <c r="C9">
-        <v>33.156880350000002</v>
+        <v>4.7697212809999998</v>
       </c>
       <c r="D9">
         <v>575</v>
       </c>
       <c r="E9">
-        <v>-7.4047757560000003</v>
+        <v>-10.67614303</v>
       </c>
       <c r="F9" s="1">
-        <v>5.1599999999999998E-10</v>
+        <v>5.0300000000000002E-10</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <f>F9*6</f>
-        <v>3.0960000000000001E-9</v>
+        <f t="shared" si="0"/>
+        <v>1.5090000000000001E-9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>-137.44269800000001</v>
+        <v>-23.566692450000001</v>
       </c>
       <c r="C10">
-        <v>33.156880350000002</v>
+        <v>4.7697212809999998</v>
       </c>
       <c r="D10">
         <v>575</v>
       </c>
       <c r="E10">
-        <v>-4.1452240549999999</v>
-      </c>
-      <c r="F10">
-        <v>1.0137410000000001E-3</v>
+        <v>-4.9408950880000004</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.8E-5</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H10">
-        <f>F10*6</f>
-        <v>6.082446E-3</v>
+        <f t="shared" si="0"/>
+        <v>8.3999999999999995E-5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>-128.43930219999999</v>
+        <v>49.253346610000001</v>
       </c>
       <c r="C11">
-        <v>33.156880350000002</v>
+        <v>4.7697212809999998</v>
       </c>
       <c r="D11">
         <v>575</v>
       </c>
       <c r="E11">
-        <v>-3.8736847640000001</v>
-      </c>
-      <c r="F11">
-        <v>2.9956599999999998E-3</v>
+        <v>10.32625256</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.0300000000000002E-10</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H11">
-        <f>F11*6</f>
-        <v>1.7973959999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5090000000000001E-9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>27.355534179999999</v>
+      </c>
+      <c r="C12">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D12">
+        <v>575</v>
+      </c>
+      <c r="E12">
+        <v>5.7352479460000003</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.39E-7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1.3170000000000001E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>55.634261709999997</v>
+      </c>
+      <c r="C13">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D13">
+        <v>575</v>
+      </c>
+      <c r="E13">
+        <v>11.66404878</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.5090000000000001E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>21.897812429999998</v>
+      </c>
+      <c r="C14">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D14">
+        <v>575</v>
+      </c>
+      <c r="E14">
+        <v>4.5910046170000003</v>
+      </c>
+      <c r="F14">
+        <v>1.4595E-4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>4.3784999999999999E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>28.278727530000001</v>
+      </c>
+      <c r="C15">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D15">
+        <v>575</v>
+      </c>
+      <c r="E15">
+        <v>5.9288008379999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.4700000000000001E-7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>4.4099999999999999E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>-34.844988999999998</v>
+      </c>
+      <c r="C16">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D16">
+        <v>575</v>
+      </c>
+      <c r="E16">
+        <v>-7.3054560110000004</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5.2900000000000003E-10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.587E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
-        <v>-123.7861769</v>
-      </c>
-      <c r="C12">
-        <v>33.156880350000002</v>
-      </c>
-      <c r="D12">
-        <v>575</v>
-      </c>
-      <c r="E12">
-        <v>-3.733348119</v>
-      </c>
-      <c r="F12">
-        <v>5.0880750000000001E-3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12">
-        <f>F12*6</f>
-        <v>3.0528449999999999E-2</v>
+      <c r="B17">
+        <v>20.789272709999999</v>
+      </c>
+      <c r="C17">
+        <v>4.7697212809999998</v>
+      </c>
+      <c r="D17">
+        <v>575</v>
+      </c>
+      <c r="E17">
+        <v>4.3585927739999999</v>
+      </c>
+      <c r="F17">
+        <v>4.1067799999999999E-4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1.2320339999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>-1.587521629</v>
+      </c>
+      <c r="C18">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D18">
+        <v>575</v>
+      </c>
+      <c r="E18">
+        <v>-8.3247948709999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1.5090000000000001E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>-0.95709315800000005</v>
+      </c>
+      <c r="C19">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D19">
+        <v>575</v>
+      </c>
+      <c r="E19">
+        <v>-5.0188949039999997</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>5.7000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>-0.95026591900000001</v>
+      </c>
+      <c r="C20">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D20">
+        <v>575</v>
+      </c>
+      <c r="E20">
+        <v>-4.9830935829999996</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.27E-5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>6.8100000000000002E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>-1.5622070779999999</v>
+      </c>
+      <c r="C21">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D21">
+        <v>575</v>
+      </c>
+      <c r="E21">
+        <v>-8.1920480510000004</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5.0300000000000002E-10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1.5090000000000001E-9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>-1.3977377799999999</v>
+      </c>
+      <c r="C22">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D22">
+        <v>575</v>
+      </c>
+      <c r="E22">
+        <v>-7.3295885170000004</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5.2500000000000005E-10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1.575E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>-1.2400392119999999</v>
+      </c>
+      <c r="C23">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D23">
+        <v>575</v>
+      </c>
+      <c r="E23">
+        <v>-6.5026339699999998</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5.3000000000000003E-9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1.59E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>-0.89446762000000002</v>
+      </c>
+      <c r="C24">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D24">
+        <v>575</v>
+      </c>
+      <c r="E24">
+        <v>-4.6904932280000002</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9.2299999999999994E-5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>2.7689999999999995E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>0.69305401</v>
+      </c>
+      <c r="C25">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D25">
+        <v>575</v>
+      </c>
+      <c r="E25">
+        <v>3.6343016430000001</v>
+      </c>
+      <c r="F25">
+        <v>7.300628E-3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>2.1901884E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.66773945800000001</v>
+      </c>
+      <c r="C26">
+        <v>0.19069798800000001</v>
+      </c>
+      <c r="D26">
+        <v>575</v>
+      </c>
+      <c r="E26">
+        <v>3.5015548230000002</v>
+      </c>
+      <c r="F26">
+        <v>1.1644326999999999E-2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>3.4932981000000002E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H12">
-    <sortCondition ref="G2:G12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
+    <sortCondition ref="G2:G26"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
@@ -11575,741 +14805,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>-30.035625970000002</v>
-      </c>
-      <c r="C2">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D2">
-        <v>575</v>
-      </c>
-      <c r="E2">
-        <v>-6.2971448849999998</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.7299999999999999E-8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2">
-        <f>F2*3</f>
-        <v>5.1899999999999995E-8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>-63.614822580000002</v>
-      </c>
-      <c r="C3">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D3">
-        <v>575</v>
-      </c>
-      <c r="E3">
-        <v>-13.337220110000001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5.0300000000000002E-10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3">
-        <f>F3*3</f>
-        <v>1.5090000000000001E-9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>-36.259288400000003</v>
-      </c>
-      <c r="C4">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D4">
-        <v>575</v>
-      </c>
-      <c r="E4">
-        <v>-7.601972161</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5.0600000000000001E-10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4">
-        <f>F4*3</f>
-        <v>1.5179999999999999E-9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>-28.76983358</v>
-      </c>
-      <c r="C5">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D5">
-        <v>575</v>
-      </c>
-      <c r="E5">
-        <v>-6.0317640969999999</v>
-      </c>
-      <c r="F5" s="1">
-        <v>8.1499999999999995E-8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5">
-        <f>F5*3</f>
-        <v>2.445E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>-33.579196609999997</v>
-      </c>
-      <c r="C6">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D6">
-        <v>575</v>
-      </c>
-      <c r="E6">
-        <v>-7.0400752229999997</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6.5700000000000001E-10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6">
-        <f>F6*3</f>
-        <v>1.9709999999999999E-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>22.0550651</v>
-      </c>
-      <c r="C7">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D7">
-        <v>575</v>
-      </c>
-      <c r="E7">
-        <v>4.6239735619999998</v>
-      </c>
-      <c r="F7">
-        <v>1.2550699999999999E-4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7">
-        <f>F7*3</f>
-        <v>3.76521E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>-17.34303002</v>
-      </c>
-      <c r="C8">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D8">
-        <v>575</v>
-      </c>
-      <c r="E8">
-        <v>-3.6360678110000002</v>
-      </c>
-      <c r="F8">
-        <v>7.2544599999999999E-3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8">
-        <f>F8*3</f>
-        <v>2.1763379999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>-50.922226629999997</v>
-      </c>
-      <c r="C9">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D9">
-        <v>575</v>
-      </c>
-      <c r="E9">
-        <v>-10.67614303</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5.0300000000000002E-10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9">
-        <f>F9*3</f>
-        <v>1.5090000000000001E-9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>-23.566692450000001</v>
-      </c>
-      <c r="C10">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D10">
-        <v>575</v>
-      </c>
-      <c r="E10">
-        <v>-4.9408950880000004</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.8E-5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10">
-        <f>F10*3</f>
-        <v>8.3999999999999995E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>49.253346610000001</v>
-      </c>
-      <c r="C11">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D11">
-        <v>575</v>
-      </c>
-      <c r="E11">
-        <v>10.32625256</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5.0300000000000002E-10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11">
-        <f>F11*3</f>
-        <v>1.5090000000000001E-9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>27.355534179999999</v>
-      </c>
-      <c r="C12">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D12">
-        <v>575</v>
-      </c>
-      <c r="E12">
-        <v>5.7352479460000003</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4.39E-7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12">
-        <f>F12*3</f>
-        <v>1.3170000000000001E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>55.634261709999997</v>
-      </c>
-      <c r="C13">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D13">
-        <v>575</v>
-      </c>
-      <c r="E13">
-        <v>11.66404878</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5.0300000000000002E-10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13">
-        <f>F13*3</f>
-        <v>1.5090000000000001E-9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>21.897812429999998</v>
-      </c>
-      <c r="C14">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D14">
-        <v>575</v>
-      </c>
-      <c r="E14">
-        <v>4.5910046170000003</v>
-      </c>
-      <c r="F14">
-        <v>1.4595E-4</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14">
-        <f>F14*3</f>
-        <v>4.3784999999999999E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15">
-        <v>28.278727530000001</v>
-      </c>
-      <c r="C15">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D15">
-        <v>575</v>
-      </c>
-      <c r="E15">
-        <v>5.9288008379999999</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1.4700000000000001E-7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15">
-        <f>F15*3</f>
-        <v>4.4099999999999999E-7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>-34.844988999999998</v>
-      </c>
-      <c r="C16">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D16">
-        <v>575</v>
-      </c>
-      <c r="E16">
-        <v>-7.3054560110000004</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5.2900000000000003E-10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16">
-        <f>F16*3</f>
-        <v>1.587E-9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>20.789272709999999</v>
-      </c>
-      <c r="C17">
-        <v>4.7697212809999998</v>
-      </c>
-      <c r="D17">
-        <v>575</v>
-      </c>
-      <c r="E17">
-        <v>4.3585927739999999</v>
-      </c>
-      <c r="F17">
-        <v>4.1067799999999999E-4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17">
-        <f>F17*3</f>
-        <v>1.2320339999999999E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>-1.587521629</v>
-      </c>
-      <c r="C18">
-        <v>0.19069798800000001</v>
-      </c>
-      <c r="D18">
-        <v>575</v>
-      </c>
-      <c r="E18">
-        <v>-8.3247948709999999</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5.0300000000000002E-10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18">
-        <f>F18*3</f>
-        <v>1.5090000000000001E-9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>-0.95709315800000005</v>
-      </c>
-      <c r="C19">
-        <v>0.19069798800000001</v>
-      </c>
-      <c r="D19">
-        <v>575</v>
-      </c>
-      <c r="E19">
-        <v>-5.0188949039999997</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19">
-        <f>F19*3</f>
-        <v>5.7000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>-0.95026591900000001</v>
-      </c>
-      <c r="C20">
-        <v>0.19069798800000001</v>
-      </c>
-      <c r="D20">
-        <v>575</v>
-      </c>
-      <c r="E20">
-        <v>-4.9830935829999996</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2.27E-5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20">
-        <f>F20*3</f>
-        <v>6.8100000000000002E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>-1.5622070779999999</v>
-      </c>
-      <c r="C21">
-        <v>0.19069798800000001</v>
-      </c>
-      <c r="D21">
-        <v>575</v>
-      </c>
-      <c r="E21">
-        <v>-8.1920480510000004</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5.0300000000000002E-10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21">
-        <f>F21*3</f>
-        <v>1.5090000000000001E-9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>-1.3977377799999999</v>
-      </c>
-      <c r="C22">
-        <v>0.19069798800000001</v>
-      </c>
-      <c r="D22">
-        <v>575</v>
-      </c>
-      <c r="E22">
-        <v>-7.3295885170000004</v>
-      </c>
-      <c r="F22" s="1">
-        <v>5.2500000000000005E-10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22">
-        <f>F22*3</f>
-        <v>1.575E-9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>-1.2400392119999999</v>
-      </c>
-      <c r="C23">
-        <v>0.19069798800000001</v>
-      </c>
-      <c r="D23">
-        <v>575</v>
-      </c>
-      <c r="E23">
-        <v>-6.5026339699999998</v>
-      </c>
-      <c r="F23" s="1">
-        <v>5.3000000000000003E-9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23">
-        <f>F23*3</f>
-        <v>1.59E-8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
-        <v>-0.89446762000000002</v>
-      </c>
-      <c r="C24">
-        <v>0.19069798800000001</v>
-      </c>
-      <c r="D24">
-        <v>575</v>
-      </c>
-      <c r="E24">
-        <v>-4.6904932280000002</v>
-      </c>
-      <c r="F24" s="1">
-        <v>9.2299999999999994E-5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24">
-        <f>F24*3</f>
-        <v>2.7689999999999995E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>0.69305401</v>
-      </c>
-      <c r="C25">
-        <v>0.19069798800000001</v>
-      </c>
-      <c r="D25">
-        <v>575</v>
-      </c>
-      <c r="E25">
-        <v>3.6343016430000001</v>
-      </c>
-      <c r="F25">
-        <v>7.300628E-3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25">
-        <f>F25*3</f>
-        <v>2.1901884E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.66773945800000001</v>
-      </c>
-      <c r="C26">
-        <v>0.19069798800000001</v>
-      </c>
-      <c r="D26">
-        <v>575</v>
-      </c>
-      <c r="E26">
-        <v>3.5015548230000002</v>
-      </c>
-      <c r="F26">
-        <v>1.1644326999999999E-2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26">
-        <f>F26*3</f>
-        <v>3.4932981000000002E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
-    <sortCondition ref="G2:G26"/>
-  </sortState>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
-      <formula>0.05</formula>
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>0.01</formula>
-      <formula>0.001</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>